--- a/Testdata/DataFile_LiveNMA_Staging.xlsx
+++ b/Testdata/DataFile_LiveNMA_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cytel\PytestFrameworkLiveSLR\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEEF73-AE8D-45FA-BE66-22187A64EDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD030B-CE6C-4294-82BB-BA154FFE38FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Population</t>
   </si>
@@ -70,27 +70,12 @@
     <t>ReportedVarExpectedValue</t>
   </si>
   <si>
-    <t>MM Maintenance</t>
-  </si>
-  <si>
-    <t>MM Maintenance_radio_button</t>
-  </si>
-  <si>
-    <t>Interventional</t>
-  </si>
-  <si>
-    <t>Interventional_radio_button</t>
-  </si>
-  <si>
     <t>reported_variable_section1</t>
   </si>
   <si>
     <t>reported_variable_section1_checkbox</t>
   </si>
   <si>
-    <t>WordReport-mCRPC-Interventional-</t>
-  </si>
-  <si>
     <t>Phase 1 Non-RCT</t>
   </si>
   <si>
@@ -109,18 +94,12 @@
     <t>study_design_section2_checkbox</t>
   </si>
   <si>
-    <t>ExcelReport-mCRPC-Interventional-</t>
-  </si>
-  <si>
     <t>Phase 1/2 Non-RCT</t>
   </si>
   <si>
     <t>PFS</t>
   </si>
   <si>
-    <t>WordReport-mCRPC-Economic-</t>
-  </si>
-  <si>
     <t>Phase 1/2 RCT</t>
   </si>
   <si>
@@ -133,183 +112,102 @@
     <t>study_design_section4_checkbox</t>
   </si>
   <si>
-    <t>ExcelReport-mCRPC-Economic-</t>
-  </si>
-  <si>
     <t>Phase 1/2 Single-arm</t>
   </si>
   <si>
     <t>Safety</t>
   </si>
   <si>
-    <t>WordReport-mCRPC-Quality of Life-</t>
-  </si>
-  <si>
     <t>Phase 1 RCT</t>
   </si>
   <si>
     <t>Utility</t>
   </si>
   <si>
-    <t>ExcelReport-mCRPC-Quality of Life-</t>
-  </si>
-  <si>
     <t>Phase 1 Single-arm</t>
   </si>
   <si>
     <t>HRQoL Outcome</t>
   </si>
   <si>
-    <t>WordReport-mCRPC-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>Phase 2 Non-RCT</t>
   </si>
   <si>
     <t>Utility Outcome</t>
   </si>
   <si>
-    <t>ExcelReport-mCRPC-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>Phase 2 RCT</t>
   </si>
   <si>
     <t>Epidemiology</t>
   </si>
   <si>
-    <t>WordReport-MM Maintenance-Interventional-</t>
-  </si>
-  <si>
     <t>Phase 2 Single-arm</t>
   </si>
   <si>
     <t>Treatment Patterns</t>
   </si>
   <si>
-    <t>ExcelReport-MM Maintenance-Interventional-</t>
-  </si>
-  <si>
     <t>Phase 3 RCT</t>
   </si>
   <si>
-    <t>WordReport-MM Maintenance-Economic-</t>
-  </si>
-  <si>
     <t>Phase 3 Non-RCT</t>
   </si>
   <si>
-    <t>ExcelReport-MM Maintenance-Economic-</t>
-  </si>
-  <si>
     <t>Phase NR Non-RCT</t>
   </si>
   <si>
-    <t>WordReport-MM Maintenance-Quality of Life-</t>
-  </si>
-  <si>
     <t>Phase NR RCT</t>
   </si>
   <si>
-    <t>ExcelReport-MM Maintenance-Quality of Life-</t>
-  </si>
-  <si>
     <t>BIM</t>
   </si>
   <si>
-    <t>WordReport-MM Maintenance-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>CEA/CUA</t>
   </si>
   <si>
-    <t>ExcelReport-MM Maintenance-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>Cost/HCRU</t>
   </si>
   <si>
-    <t>WordReport-RR ALL-Interventional-</t>
-  </si>
-  <si>
     <t>ITC</t>
   </si>
   <si>
-    <t>ExcelReport-RR ALL-Interventional-</t>
-  </si>
-  <si>
     <t>HTA</t>
   </si>
   <si>
-    <t>WordReport-RR ALL-Economic-</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>ExcelReport-RR ALL-Economic-</t>
-  </si>
-  <si>
     <t>Prospective observational</t>
   </si>
   <si>
-    <t>WordReport-RR ALL-Quality of Life-</t>
-  </si>
-  <si>
     <t>RCT</t>
   </si>
   <si>
-    <t>ExcelReport-RR ALL-Quality of Life-</t>
-  </si>
-  <si>
     <t>Retrospective</t>
   </si>
   <si>
-    <t>WordReport-RRMM-Interventional-</t>
-  </si>
-  <si>
     <t>Single-arm</t>
   </si>
   <si>
-    <t>ExcelReport-RRMM-Interventional-</t>
-  </si>
-  <si>
     <t>Survey</t>
   </si>
   <si>
-    <t>WordReport-RRMM-Economic-</t>
-  </si>
-  <si>
     <t>Database Analysis</t>
   </si>
   <si>
-    <t>ExcelReport-RRMM-Economic-</t>
-  </si>
-  <si>
     <t>Prospective Multicenter</t>
   </si>
   <si>
-    <t>WordReport-RRMM-Quality of Life-</t>
-  </si>
-  <si>
     <t>Prospective Single-center</t>
   </si>
   <si>
-    <t>ExcelReport-RRMM-Quality of Life-</t>
-  </si>
-  <si>
     <t>Retrospective Multicenter</t>
   </si>
   <si>
-    <t>WordReport-RRMM-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>Retrospective Single-center</t>
   </si>
   <si>
-    <t>ExcelReport-RRMM-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>Validation study</t>
   </si>
   <si>
@@ -352,10 +250,22 @@
     <t>OS_HR_P_Value</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test_radio_button</t>
+    <t>NewImportLogic_1 - Test_Automation_1</t>
+  </si>
+  <si>
+    <t>NewImportLogic_1 - Test_Automation_1_radio_button</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
   </si>
 </sst>
 </file>
@@ -673,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,372 +641,280 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="M6">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M7">
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M8">
         <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="M9">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
         <v>48</v>
       </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I11" t="s">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
         <v>50</v>
       </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I12" t="s">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
         <v>52</v>
       </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
         <v>54</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
         <v>56</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I26" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I29" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I30" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I32" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/DataFile_LiveNMA_Staging.xlsx
+++ b/Testdata/DataFile_LiveNMA_Staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD030B-CE6C-4294-82BB-BA154FFE38FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E74C3EA-1DBC-418C-B9D7-AA880806AA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>short_reference</t>
   </si>
   <si>
-    <t>Automation_Test_2022</t>
-  </si>
-  <si>
     <t>intervention</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>Automation_Test_2023</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,16 +649,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -685,7 +685,7 @@
         <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -711,15 +711,15 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4">
         <v>201</v>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
         <v>202</v>
@@ -756,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6">
         <v>0.5</v>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7">
         <v>0.4</v>
@@ -784,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8">
         <v>0.7</v>
@@ -798,7 +798,7 @@
         <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9">
         <v>0.05</v>

--- a/Testdata/DataFile_LiveNMA_Staging.xlsx
+++ b/Testdata/DataFile_LiveNMA_Staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E74C3EA-1DBC-418C-B9D7-AA880806AA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78366050-C394-482C-AA0B-008F872AE9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>Validation study</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>Add_Study_Data</t>
   </si>
   <si>
@@ -259,13 +256,16 @@
     <t>Clinical_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
   </si>
   <si>
     <t>Automation_Test_2023</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,24 +641,24 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
         <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -673,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -682,10 +682,10 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -711,15 +711,15 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4">
         <v>201</v>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5">
         <v>202</v>
@@ -756,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6">
         <v>0.5</v>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7">
         <v>0.4</v>
@@ -784,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M8">
         <v>0.7</v>
@@ -798,7 +798,7 @@
         <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M9">
         <v>0.05</v>

--- a/Testdata/DataFile_LiveNMA_Staging.xlsx
+++ b/Testdata/DataFile_LiveNMA_Staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78366050-C394-482C-AA0B-008F872AE9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D10DE46-57AC-4665-99D9-FA80FA847A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,10 +262,10 @@
     <t>Automation_Test_2023</t>
   </si>
   <si>
-    <t>StandardExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-2023_</t>
-  </si>
-  <si>
     <t>ExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_1-Test_Automation_1-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
